--- a/זמני_ריצה.xlsx
+++ b/זמני_ריצה.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ronien\Documents\סמסטר 5\בינה\hw2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85D021E5-459E-4488-9C75-E4A74F23AC2D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0231ECDC-EDA7-4E4F-BF79-02884F971F3F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="13650" yWindow="670" windowWidth="14400" windowHeight="7360" xr2:uid="{BE4DA62A-C403-4051-9F75-DD0934FD02C0}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="5">
   <si>
     <t>שם השחקן</t>
   </si>
@@ -401,10 +401,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9BA965A-246B-4352-93B3-C7EF2A67F969}">
-  <dimension ref="B1:F24"/>
+  <dimension ref="B1:F36"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -656,10 +656,10 @@
         <v>3</v>
       </c>
       <c r="D21">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="E21">
-        <v>0.53808876334643696</v>
+        <v>0.436338134765625</v>
       </c>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.3">
@@ -702,6 +702,146 @@
       </c>
       <c r="E24">
         <v>0.44607132507695002</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B27" t="s">
+        <v>4</v>
+      </c>
+      <c r="C27">
+        <v>2</v>
+      </c>
+      <c r="D27">
+        <v>46</v>
+      </c>
+      <c r="E27">
+        <v>6.3551565170287996E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B28" t="s">
+        <v>4</v>
+      </c>
+      <c r="C28">
+        <v>2</v>
+      </c>
+      <c r="D28">
+        <v>44</v>
+      </c>
+      <c r="E28">
+        <v>6.7242321014404194E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B29" t="s">
+        <v>4</v>
+      </c>
+      <c r="C29">
+        <v>2</v>
+      </c>
+      <c r="D29">
+        <v>42</v>
+      </c>
+      <c r="E29">
+        <v>4.8815268946457699E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B30" t="s">
+        <v>4</v>
+      </c>
+      <c r="C30">
+        <v>2</v>
+      </c>
+      <c r="D30">
+        <v>43</v>
+      </c>
+      <c r="E30">
+        <v>6.4226174422868001E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B31" t="s">
+        <v>4</v>
+      </c>
+      <c r="C31">
+        <v>2</v>
+      </c>
+      <c r="D31">
+        <v>47</v>
+      </c>
+      <c r="E31">
+        <v>6.7451227214974402E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B32" t="s">
+        <v>4</v>
+      </c>
+      <c r="C32">
+        <v>2</v>
+      </c>
+      <c r="D32">
+        <v>43</v>
+      </c>
+      <c r="E32">
+        <v>6.3655421557024E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B33" t="s">
+        <v>4</v>
+      </c>
+      <c r="C33">
+        <v>2</v>
+      </c>
+      <c r="D33">
+        <v>47</v>
+      </c>
+      <c r="E33">
+        <v>6.4607034321703893E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B34" t="s">
+        <v>4</v>
+      </c>
+      <c r="C34">
+        <v>2</v>
+      </c>
+      <c r="D34">
+        <v>42</v>
+      </c>
+      <c r="E34">
+        <v>6.5269224105342694E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B35" t="s">
+        <v>4</v>
+      </c>
+      <c r="C35">
+        <v>2</v>
+      </c>
+      <c r="D35">
+        <v>43</v>
+      </c>
+      <c r="E35">
+        <v>5.9832451343536298E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B36" t="s">
+        <v>4</v>
+      </c>
+      <c r="C36">
+        <v>2</v>
+      </c>
+      <c r="D36">
+        <v>42</v>
+      </c>
+      <c r="E36">
+        <v>6.74268940845167E-2</v>
       </c>
     </row>
   </sheetData>

--- a/זמני_ריצה.xlsx
+++ b/זמני_ריצה.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ronien\Documents\סמסטר 5\בינה\hw2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0231ECDC-EDA7-4E4F-BF79-02884F971F3F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42B6F7F1-0C7A-439E-B569-B3C81F2C6F3D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="13650" yWindow="670" windowWidth="14400" windowHeight="7360" xr2:uid="{BE4DA62A-C403-4051-9F75-DD0934FD02C0}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="6">
   <si>
     <t>שם השחקן</t>
   </si>
@@ -46,6 +46,9 @@
   </si>
   <si>
     <t>Minimax</t>
+  </si>
+  <si>
+    <t>AlphaBeta</t>
   </si>
 </sst>
 </file>
@@ -401,10 +404,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9BA965A-246B-4352-93B3-C7EF2A67F969}">
-  <dimension ref="B1:F36"/>
+  <dimension ref="B1:F72"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A54" workbookViewId="0">
+      <selection activeCell="F67" sqref="F67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -844,6 +847,426 @@
         <v>6.74268940845167E-2</v>
       </c>
     </row>
+    <row r="39" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B39" t="s">
+        <v>5</v>
+      </c>
+      <c r="C39">
+        <v>2</v>
+      </c>
+      <c r="D39">
+        <v>42</v>
+      </c>
+      <c r="E39">
+        <v>3.8128322713515302E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B40" t="s">
+        <v>5</v>
+      </c>
+      <c r="C40">
+        <v>2</v>
+      </c>
+      <c r="D40">
+        <v>38</v>
+      </c>
+      <c r="E40">
+        <v>3.8027653024216297E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B41" t="s">
+        <v>5</v>
+      </c>
+      <c r="C41">
+        <v>2</v>
+      </c>
+      <c r="D41">
+        <v>47</v>
+      </c>
+      <c r="E41">
+        <v>3.6198077271285503E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B42" t="s">
+        <v>5</v>
+      </c>
+      <c r="C42">
+        <v>2</v>
+      </c>
+      <c r="D42">
+        <v>41</v>
+      </c>
+      <c r="E42">
+        <v>3.3640056610107397E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B43" t="s">
+        <v>5</v>
+      </c>
+      <c r="C43">
+        <v>2</v>
+      </c>
+      <c r="D43">
+        <v>38</v>
+      </c>
+      <c r="E43">
+        <v>3.4912142339626598E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B44" t="s">
+        <v>5</v>
+      </c>
+      <c r="C44">
+        <v>2</v>
+      </c>
+      <c r="D44">
+        <v>40</v>
+      </c>
+      <c r="E44">
+        <v>3.28379044532775E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B45" t="s">
+        <v>5</v>
+      </c>
+      <c r="C45">
+        <v>2</v>
+      </c>
+      <c r="D45">
+        <v>45</v>
+      </c>
+      <c r="E45">
+        <v>3.4384778499603197E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B46" t="s">
+        <v>5</v>
+      </c>
+      <c r="C46">
+        <v>2</v>
+      </c>
+      <c r="D46">
+        <v>36</v>
+      </c>
+      <c r="E46">
+        <v>3.3511324882507298E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B47" t="s">
+        <v>5</v>
+      </c>
+      <c r="C47">
+        <v>2</v>
+      </c>
+      <c r="D47">
+        <v>47</v>
+      </c>
+      <c r="E47">
+        <v>3.4794041633605902E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B48" t="s">
+        <v>5</v>
+      </c>
+      <c r="C48">
+        <v>2</v>
+      </c>
+      <c r="D48">
+        <v>43</v>
+      </c>
+      <c r="E48">
+        <v>3.46788414887019E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B51" t="s">
+        <v>5</v>
+      </c>
+      <c r="C51">
+        <v>4</v>
+      </c>
+      <c r="D51">
+        <v>37</v>
+      </c>
+      <c r="E51">
+        <v>0.67935493384977896</v>
+      </c>
+    </row>
+    <row r="52" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B52" t="s">
+        <v>5</v>
+      </c>
+      <c r="C52">
+        <v>4</v>
+      </c>
+      <c r="D52">
+        <v>41</v>
+      </c>
+      <c r="E52">
+        <v>0.64334871823137396</v>
+      </c>
+    </row>
+    <row r="53" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B53" t="s">
+        <v>5</v>
+      </c>
+      <c r="C53">
+        <v>4</v>
+      </c>
+      <c r="D53">
+        <v>35</v>
+      </c>
+      <c r="E53">
+        <v>0.63176122005434998</v>
+      </c>
+    </row>
+    <row r="54" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B54" t="s">
+        <v>5</v>
+      </c>
+      <c r="C54">
+        <v>4</v>
+      </c>
+      <c r="D54">
+        <v>45</v>
+      </c>
+      <c r="E54">
+        <v>0.59814606730345699</v>
+      </c>
+    </row>
+    <row r="55" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B55" t="s">
+        <v>5</v>
+      </c>
+      <c r="C55">
+        <v>4</v>
+      </c>
+      <c r="D55">
+        <v>34</v>
+      </c>
+      <c r="E55">
+        <v>0.64251982407136399</v>
+      </c>
+    </row>
+    <row r="56" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B56" t="s">
+        <v>5</v>
+      </c>
+      <c r="C56">
+        <v>4</v>
+      </c>
+      <c r="D56">
+        <v>39</v>
+      </c>
+      <c r="E56">
+        <v>0.58259260351007602</v>
+      </c>
+    </row>
+    <row r="57" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B57" t="s">
+        <v>5</v>
+      </c>
+      <c r="C57">
+        <v>4</v>
+      </c>
+      <c r="D57">
+        <v>33</v>
+      </c>
+      <c r="E57">
+        <v>0.64277760187784805</v>
+      </c>
+    </row>
+    <row r="58" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B58" t="s">
+        <v>5</v>
+      </c>
+      <c r="C58">
+        <v>4</v>
+      </c>
+      <c r="D58">
+        <v>43</v>
+      </c>
+      <c r="E58">
+        <v>0.53016829620236905</v>
+      </c>
+    </row>
+    <row r="59" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B59" t="s">
+        <v>5</v>
+      </c>
+      <c r="C59">
+        <v>4</v>
+      </c>
+      <c r="D59">
+        <v>38</v>
+      </c>
+      <c r="E59">
+        <v>0.54778992587869801</v>
+      </c>
+    </row>
+    <row r="60" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B60" t="s">
+        <v>5</v>
+      </c>
+      <c r="C60">
+        <v>4</v>
+      </c>
+      <c r="D60">
+        <v>47</v>
+      </c>
+      <c r="E60">
+        <v>0.57316976342319403</v>
+      </c>
+    </row>
+    <row r="63" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B63" t="s">
+        <v>5</v>
+      </c>
+      <c r="C63">
+        <v>3</v>
+      </c>
+      <c r="D63">
+        <v>50</v>
+      </c>
+      <c r="E63">
+        <v>0.140131555479864</v>
+      </c>
+    </row>
+    <row r="64" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B64" t="s">
+        <v>5</v>
+      </c>
+      <c r="C64">
+        <v>3</v>
+      </c>
+      <c r="D64">
+        <v>41</v>
+      </c>
+      <c r="E64">
+        <v>0.15868938274872599</v>
+      </c>
+    </row>
+    <row r="65" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B65" t="s">
+        <v>5</v>
+      </c>
+      <c r="C65">
+        <v>3</v>
+      </c>
+      <c r="D65">
+        <v>49</v>
+      </c>
+      <c r="E65">
+        <v>0.16247111460121899</v>
+      </c>
+    </row>
+    <row r="66" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B66" t="s">
+        <v>5</v>
+      </c>
+      <c r="C66">
+        <v>3</v>
+      </c>
+      <c r="D66">
+        <v>48</v>
+      </c>
+      <c r="E66">
+        <v>0.13642292642593301</v>
+      </c>
+    </row>
+    <row r="67" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B67" t="s">
+        <v>5</v>
+      </c>
+      <c r="C67">
+        <v>3</v>
+      </c>
+      <c r="D67">
+        <v>43</v>
+      </c>
+      <c r="E67">
+        <v>0.153872887955771</v>
+      </c>
+    </row>
+    <row r="68" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B68" t="s">
+        <v>5</v>
+      </c>
+      <c r="C68">
+        <v>3</v>
+      </c>
+      <c r="D68">
+        <v>46</v>
+      </c>
+      <c r="E68">
+        <v>0.14309597163774099</v>
+      </c>
+    </row>
+    <row r="69" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B69" t="s">
+        <v>5</v>
+      </c>
+      <c r="C69">
+        <v>3</v>
+      </c>
+      <c r="D69">
+        <v>43</v>
+      </c>
+      <c r="E69">
+        <v>0.14630604605925701</v>
+      </c>
+    </row>
+    <row r="70" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B70" t="s">
+        <v>5</v>
+      </c>
+      <c r="C70">
+        <v>3</v>
+      </c>
+      <c r="D70">
+        <v>43</v>
+      </c>
+      <c r="E70">
+        <v>0.150657780647277</v>
+      </c>
+    </row>
+    <row r="71" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B71" t="s">
+        <v>5</v>
+      </c>
+      <c r="C71">
+        <v>3</v>
+      </c>
+      <c r="D71">
+        <v>42</v>
+      </c>
+      <c r="E71">
+        <v>0.16990408347774499</v>
+      </c>
+    </row>
+    <row r="72" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B72" t="s">
+        <v>5</v>
+      </c>
+      <c r="C72">
+        <v>3</v>
+      </c>
+      <c r="D72">
+        <v>43</v>
+      </c>
+      <c r="E72">
+        <v>0.133885962486267</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/זמני_ריצה.xlsx
+++ b/זמני_ריצה.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ronien\Documents\סמסטר 5\בינה\hw2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42B6F7F1-0C7A-439E-B569-B3C81F2C6F3D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54DC495C-D5A8-4555-B206-5FA3A5C167A8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13650" yWindow="670" windowWidth="14400" windowHeight="7360" xr2:uid="{BE4DA62A-C403-4051-9F75-DD0934FD02C0}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{BE4DA62A-C403-4051-9F75-DD0934FD02C0}"/>
   </bookViews>
   <sheets>
     <sheet name="גיליון1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="8">
   <si>
     <t>שם השחקן</t>
   </si>
@@ -49,6 +49,12 @@
   </si>
   <si>
     <t>AlphaBeta</t>
+  </si>
+  <si>
+    <t>BetterGreedyAgent</t>
+  </si>
+  <si>
+    <t>GreedyAgent</t>
   </si>
 </sst>
 </file>
@@ -404,13 +410,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9BA965A-246B-4352-93B3-C7EF2A67F969}">
-  <dimension ref="B1:F72"/>
+  <dimension ref="B1:F96"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A54" workbookViewId="0">
-      <selection activeCell="F67" sqref="F67"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="B100" sqref="B100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="16.25" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="2:6" ht="28" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
@@ -1267,6 +1276,286 @@
         <v>0.133885962486267</v>
       </c>
     </row>
+    <row r="75" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B75" t="s">
+        <v>6</v>
+      </c>
+      <c r="C75">
+        <v>1</v>
+      </c>
+      <c r="D75">
+        <v>48</v>
+      </c>
+      <c r="E75">
+        <v>9.9166671809405599E-3</v>
+      </c>
+    </row>
+    <row r="76" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B76" t="s">
+        <v>6</v>
+      </c>
+      <c r="C76">
+        <v>1</v>
+      </c>
+      <c r="D76">
+        <v>41</v>
+      </c>
+      <c r="E76">
+        <v>9.5476839542388905E-3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B77" t="s">
+        <v>6</v>
+      </c>
+      <c r="C77">
+        <v>1</v>
+      </c>
+      <c r="D77">
+        <v>52</v>
+      </c>
+      <c r="E77">
+        <v>1.0826683759689299E-2</v>
+      </c>
+    </row>
+    <row r="78" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B78" t="s">
+        <v>6</v>
+      </c>
+      <c r="C78">
+        <v>1</v>
+      </c>
+      <c r="D78">
+        <v>51</v>
+      </c>
+      <c r="E78">
+        <v>1.3146179437637301E-2</v>
+      </c>
+    </row>
+    <row r="79" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B79" t="s">
+        <v>6</v>
+      </c>
+      <c r="C79">
+        <v>1</v>
+      </c>
+      <c r="D79">
+        <v>45</v>
+      </c>
+      <c r="E79">
+        <v>9.8128959275128498E-3</v>
+      </c>
+    </row>
+    <row r="80" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B80" t="s">
+        <v>6</v>
+      </c>
+      <c r="C80">
+        <v>1</v>
+      </c>
+      <c r="D80">
+        <v>45</v>
+      </c>
+      <c r="E80">
+        <v>9.9320800884349896E-3</v>
+      </c>
+    </row>
+    <row r="81" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B81" t="s">
+        <v>6</v>
+      </c>
+      <c r="C81">
+        <v>1</v>
+      </c>
+      <c r="D81">
+        <v>42</v>
+      </c>
+      <c r="E81">
+        <v>1.07016019821166E-2</v>
+      </c>
+    </row>
+    <row r="82" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B82" t="s">
+        <v>6</v>
+      </c>
+      <c r="C82">
+        <v>1</v>
+      </c>
+      <c r="D82">
+        <v>45</v>
+      </c>
+      <c r="E82">
+        <v>1.02405992794933E-2</v>
+      </c>
+    </row>
+    <row r="83" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B83" t="s">
+        <v>6</v>
+      </c>
+      <c r="C83">
+        <v>1</v>
+      </c>
+      <c r="D83">
+        <v>44</v>
+      </c>
+      <c r="E83">
+        <v>9.7395252240331503E-3</v>
+      </c>
+    </row>
+    <row r="84" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B84" t="s">
+        <v>6</v>
+      </c>
+      <c r="C84">
+        <v>1</v>
+      </c>
+      <c r="D84">
+        <v>46</v>
+      </c>
+      <c r="E84">
+        <v>9.7664165496826102E-3</v>
+      </c>
+    </row>
+    <row r="87" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B87" t="s">
+        <v>7</v>
+      </c>
+      <c r="C87">
+        <v>1</v>
+      </c>
+      <c r="D87">
+        <v>14</v>
+      </c>
+      <c r="E87">
+        <v>1.04013937398007E-2</v>
+      </c>
+    </row>
+    <row r="88" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B88" t="s">
+        <v>7</v>
+      </c>
+      <c r="C88">
+        <v>1</v>
+      </c>
+      <c r="D88">
+        <v>16</v>
+      </c>
+      <c r="E88">
+        <v>1.3956719170665099E-2</v>
+      </c>
+    </row>
+    <row r="89" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B89" t="s">
+        <v>7</v>
+      </c>
+      <c r="C89">
+        <v>1</v>
+      </c>
+      <c r="D89">
+        <v>9</v>
+      </c>
+      <c r="E89">
+        <v>1.18289251995694E-2</v>
+      </c>
+    </row>
+    <row r="90" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B90" t="s">
+        <v>7</v>
+      </c>
+      <c r="C90">
+        <v>1</v>
+      </c>
+      <c r="D90">
+        <v>9</v>
+      </c>
+      <c r="E90">
+        <v>1.2896730349614E-2</v>
+      </c>
+    </row>
+    <row r="91" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B91" t="s">
+        <v>7</v>
+      </c>
+      <c r="C91">
+        <v>1</v>
+      </c>
+      <c r="D91">
+        <v>10</v>
+      </c>
+      <c r="E91">
+        <v>1.18573770523071E-2</v>
+      </c>
+    </row>
+    <row r="92" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B92" t="s">
+        <v>7</v>
+      </c>
+      <c r="C92">
+        <v>1</v>
+      </c>
+      <c r="D92">
+        <v>12</v>
+      </c>
+      <c r="E92">
+        <v>1.34798261854383E-2</v>
+      </c>
+    </row>
+    <row r="93" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B93" t="s">
+        <v>7</v>
+      </c>
+      <c r="C93">
+        <v>1</v>
+      </c>
+      <c r="D93">
+        <v>12</v>
+      </c>
+      <c r="E93">
+        <v>7.1634781229627E-3</v>
+      </c>
+    </row>
+    <row r="94" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B94" t="s">
+        <v>7</v>
+      </c>
+      <c r="C94">
+        <v>1</v>
+      </c>
+      <c r="D94">
+        <v>11</v>
+      </c>
+      <c r="E94">
+        <v>1.28743583957354E-2</v>
+      </c>
+    </row>
+    <row r="95" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B95" t="s">
+        <v>7</v>
+      </c>
+      <c r="C95">
+        <v>1</v>
+      </c>
+      <c r="D95">
+        <v>9</v>
+      </c>
+      <c r="E95">
+        <v>1.5195489895005901E-2</v>
+      </c>
+    </row>
+    <row r="96" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B96" t="s">
+        <v>7</v>
+      </c>
+      <c r="C96">
+        <v>1</v>
+      </c>
+      <c r="D96">
+        <v>9</v>
+      </c>
+      <c r="E96">
+        <v>9.1654953589806101E-3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/זמני_ריצה.xlsx
+++ b/זמני_ריצה.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ronien\Documents\סמסטר 5\בינה\hw2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Desktop\Technion\AI\HW2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54DC495C-D5A8-4555-B206-5FA3A5C167A8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD8584A7-03B9-402D-B918-0C166FFF14DF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{BE4DA62A-C403-4051-9F75-DD0934FD02C0}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{BE4DA62A-C403-4051-9F75-DD0934FD02C0}"/>
   </bookViews>
   <sheets>
     <sheet name="גיליון1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="8">
   <si>
     <t>שם השחקן</t>
   </si>
@@ -111,6 +111,2485 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="he-IL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="he-IL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>גיליון1!$M$18</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Minimax</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>גיליון1!$J$11:$N$11</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>גיליון1!$J$11:$M$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>גיליון1!$J$12:$N$12</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>גיליון1!$J$12:$M$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>37.700000000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42.3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>43.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F771-4ACE-BFCC-E22EE5A11A2B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>גיליון1!$L$18</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>AlphaBeta</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>גיליון1!$J$11:$N$11</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>גיליון1!$J$11:$M$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>גיליון1!$J$13:$N$13</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>גיליון1!$J$13:$M$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>39.200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44.8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>41.7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-F771-4ACE-BFCC-E22EE5A11A2B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>גיליון1!$K$18</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>BetterGreedyAgent</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>גיליון1!$J$11:$N$11</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>גיליון1!$J$11:$M$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>גיליון1!$J$14:$N$14</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>גיליון1!$J$14:$M$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="3">
+                  <c:v>45.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-F771-4ACE-BFCC-E22EE5A11A2B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>גיליון1!$J$18</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>GreedyAgent</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>גיליון1!$J$11:$N$11</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>גיליון1!$J$11:$M$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>גיליון1!$J$15:$N$15</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>גיליון1!$J$15:$M$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="3">
+                  <c:v>11.1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-F771-4ACE-BFCC-E22EE5A11A2B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="644024624"/>
+        <c:axId val="644028560"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="4"/>
+                <c:order val="4"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>גיליון1!$M$18</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Minimax</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent5"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{F5D05F6E-A05E-4728-AFD3-386EB277150F}">
+                        <c16:filteredLitCache>
+                          <c:numCache>
+                            <c:ptCount val="0"/>
+                          </c:numCache>
+                        </c16:filteredLitCache>
+                      </c:ext>
+                    </c:extLst>
+                    <c:f/>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>1</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000004-F771-4ACE-BFCC-E22EE5A11A2B}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+          </c:ext>
+        </c:extLst>
+      </c:lineChart>
+      <c:dateAx>
+        <c:axId val="644024624"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="he-IL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="644028560"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="0"/>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="days"/>
+      </c:dateAx>
+      <c:valAx>
+        <c:axId val="644028560"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="he-IL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="644024624"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="he-IL"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="he-IL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="he-IL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="he-IL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>גיליון1!$N$27</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Minimax</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>גיליון1!$J$26:$N$26</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>גיליון1!$J$26:$M$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>גיליון1!$J$27:$N$27</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>גיליון1!$J$27:$M$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>4.5567571785250918</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.47790041198915922</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.3207758218111601E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-DB1D-402E-9405-67A9ACBF80EC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>גיליון1!$N$28</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>AlphaBeta</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>גיליון1!$J$26:$N$26</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>גיליון1!$J$26:$M$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>גיליון1!$J$28:$N$28</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>גיליון1!$J$28:$M$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.60716289544025082</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.14954377115198</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.5111314291644692E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-DB1D-402E-9405-67A9ACBF80EC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>גיליון1!$N$29</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>BetterGreedyAgent</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>גיליון1!$J$26:$N$26</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>גיליון1!$J$26:$M$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>גיליון1!$J$29:$N$29</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>גיליון1!$J$29:$M$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="3">
+                  <c:v>1.0363033338377955E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-DB1D-402E-9405-67A9ACBF80EC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>גיליון1!$N$30</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>GreedyAgent</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>גיליון1!$J$26:$N$26</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>גיליון1!$J$26:$M$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>גיליון1!$J$30:$N$30</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>גיליון1!$J$30:$M$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="3">
+                  <c:v>1.188197934700792E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-DB1D-402E-9405-67A9ACBF80EC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="650629592"/>
+        <c:axId val="650627624"/>
+      </c:lineChart>
+      <c:dateAx>
+        <c:axId val="650629592"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="he-IL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="650627624"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="0"/>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="days"/>
+      </c:dateAx>
+      <c:valAx>
+        <c:axId val="650627624"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="he-IL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="650629592"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="he-IL"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="he-IL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>276225</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="תרשים 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7AF5150E-83A0-49F0-B082-A8C390DCF8ED}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>550863</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>625475</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="תרשים 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{293BF4ED-8D07-4D5A-BE2A-CB1FDEC24047}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -410,18 +2889,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9BA965A-246B-4352-93B3-C7EF2A67F969}">
-  <dimension ref="B1:F96"/>
+  <dimension ref="B1:N96"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="B100" sqref="B100"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="T28" sqref="T28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="16.25" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.08203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" ht="28" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:14" ht="28" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -436,7 +2919,7 @@
       </c>
       <c r="F1" s="1"/>
     </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>4</v>
       </c>
@@ -449,8 +2932,22 @@
       <c r="E3">
         <v>4.3105842104540102</v>
       </c>
-    </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="H3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I3">
+        <v>4</v>
+      </c>
+      <c r="J3">
+        <f>AVERAGE(D3:D12)</f>
+        <v>37.700000000000003</v>
+      </c>
+      <c r="K3">
+        <f>AVERAGE(E3:E12)</f>
+        <v>4.5567571785250918</v>
+      </c>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>4</v>
       </c>
@@ -463,8 +2960,22 @@
       <c r="E4">
         <v>3.5972149689992201</v>
       </c>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="H4" t="s">
+        <v>4</v>
+      </c>
+      <c r="I4">
+        <v>3</v>
+      </c>
+      <c r="J4">
+        <f>AVERAGE(D15:D24)</f>
+        <v>42.3</v>
+      </c>
+      <c r="K4">
+        <f>AVERAGE(E15:E24)</f>
+        <v>0.47790041198915922</v>
+      </c>
+    </row>
+    <row r="5" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>4</v>
       </c>
@@ -477,8 +2988,22 @@
       <c r="E5">
         <v>5.2568609332061804</v>
       </c>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="H5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I5">
+        <v>2</v>
+      </c>
+      <c r="J5">
+        <f>AVERAGE(D27:D36)</f>
+        <v>43.9</v>
+      </c>
+      <c r="K5">
+        <f>AVERAGE(E27:E36)</f>
+        <v>6.3207758218111601E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>4</v>
       </c>
@@ -491,8 +3016,14 @@
       <c r="E6">
         <v>4.19947236043045</v>
       </c>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="H6" t="s">
+        <v>5</v>
+      </c>
+      <c r="I6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>4</v>
       </c>
@@ -505,8 +3036,14 @@
       <c r="E7">
         <v>4.4076032394187203</v>
       </c>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="H7" t="s">
+        <v>5</v>
+      </c>
+      <c r="I7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>4</v>
       </c>
@@ -519,8 +3056,14 @@
       <c r="E8">
         <v>4.9764619022996799</v>
       </c>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="H8" t="s">
+        <v>5</v>
+      </c>
+      <c r="I8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>4</v>
       </c>
@@ -534,7 +3077,7 @@
         <v>4.1758216805086796</v>
       </c>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>4</v>
       </c>
@@ -548,7 +3091,7 @@
         <v>4.9431861515315001</v>
       </c>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>4</v>
       </c>
@@ -561,8 +3104,20 @@
       <c r="E11">
         <v>5.0145493284126204</v>
       </c>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="J11">
+        <v>4</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>2</v>
+      </c>
+      <c r="M11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>4</v>
       </c>
@@ -575,8 +3130,47 @@
       <c r="E12">
         <v>4.6858170099898597</v>
       </c>
-    </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="J12">
+        <f>AVERAGE(D3:D12)</f>
+        <v>37.700000000000003</v>
+      </c>
+      <c r="K12">
+        <v>42.3</v>
+      </c>
+      <c r="L12">
+        <v>43.9</v>
+      </c>
+      <c r="N12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="J13">
+        <f>AVERAGE(D51:D60)</f>
+        <v>39.200000000000003</v>
+      </c>
+      <c r="K13">
+        <f>AVERAGE(D63:D72)</f>
+        <v>44.8</v>
+      </c>
+      <c r="L13">
+        <f>AVERAGE(D39:D48)</f>
+        <v>41.7</v>
+      </c>
+      <c r="N13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="M14">
+        <f>AVERAGE(D75:D84)</f>
+        <v>45.9</v>
+      </c>
+      <c r="N14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>4</v>
       </c>
@@ -589,8 +3183,15 @@
       <c r="E15">
         <v>0.43355689622968901</v>
       </c>
-    </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="M15">
+        <f>AVERAGE(D87:D96)</f>
+        <v>11.1</v>
+      </c>
+      <c r="N15" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>4</v>
       </c>
@@ -604,7 +3205,7 @@
         <v>0.466639838267847</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
         <v>4</v>
       </c>
@@ -618,7 +3219,7 @@
         <v>0.46189259829586499</v>
       </c>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
         <v>4</v>
       </c>
@@ -631,8 +3232,20 @@
       <c r="E18">
         <v>0.458895084978658</v>
       </c>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="J18" t="s">
+        <v>7</v>
+      </c>
+      <c r="K18" t="s">
+        <v>6</v>
+      </c>
+      <c r="L18" t="s">
+        <v>5</v>
+      </c>
+      <c r="M18" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
         <v>4</v>
       </c>
@@ -645,8 +3258,17 @@
       <c r="E19">
         <v>0.48955870963431602</v>
       </c>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="J19">
+        <v>11.1</v>
+      </c>
+      <c r="K19">
+        <v>45.9</v>
+      </c>
+      <c r="N19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
         <v>4</v>
       </c>
@@ -659,8 +3281,17 @@
       <c r="E20">
         <v>0.51337759984682596</v>
       </c>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="L20">
+        <v>41.7</v>
+      </c>
+      <c r="M20">
+        <v>43.9</v>
+      </c>
+      <c r="N20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
         <v>4</v>
       </c>
@@ -673,8 +3304,17 @@
       <c r="E21">
         <v>0.436338134765625</v>
       </c>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="L21">
+        <v>44.8</v>
+      </c>
+      <c r="M21">
+        <v>42.3</v>
+      </c>
+      <c r="N21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
         <v>4</v>
       </c>
@@ -687,8 +3327,17 @@
       <c r="E22">
         <v>0.53098312450519003</v>
       </c>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="L22">
+        <v>39.200000000000003</v>
+      </c>
+      <c r="M22">
+        <v>37.700000000000003</v>
+      </c>
+      <c r="N22">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
         <v>4</v>
       </c>
@@ -702,7 +3351,7 @@
         <v>0.54169080829062599</v>
       </c>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
         <v>4</v>
       </c>
@@ -716,7 +3365,21 @@
         <v>0.44607132507695002</v>
       </c>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="J26">
+        <v>4</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>2</v>
+      </c>
+      <c r="M26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
         <v>4</v>
       </c>
@@ -729,8 +3392,23 @@
       <c r="E27">
         <v>6.3551565170287996E-2</v>
       </c>
-    </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="J27">
+        <f>AVERAGE(E3:E12)</f>
+        <v>4.5567571785250918</v>
+      </c>
+      <c r="K27">
+        <f>AVERAGE(E15:E24)</f>
+        <v>0.47790041198915922</v>
+      </c>
+      <c r="L27">
+        <f>AVERAGE(E27:E36)</f>
+        <v>6.3207758218111601E-2</v>
+      </c>
+      <c r="N27" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
         <v>4</v>
       </c>
@@ -743,8 +3421,23 @@
       <c r="E28">
         <v>6.7242321014404194E-2</v>
       </c>
-    </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="J28">
+        <f>AVERAGE(E51:E60)</f>
+        <v>0.60716289544025082</v>
+      </c>
+      <c r="K28">
+        <f>AVERAGE(E63:E72)</f>
+        <v>0.14954377115198</v>
+      </c>
+      <c r="L28">
+        <f>AVERAGE(E39:E48)</f>
+        <v>3.5111314291644692E-2</v>
+      </c>
+      <c r="N28" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
         <v>4</v>
       </c>
@@ -757,8 +3450,15 @@
       <c r="E29">
         <v>4.8815268946457699E-2</v>
       </c>
-    </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="M29">
+        <f>AVERAGE(E75:E84)</f>
+        <v>1.0363033338377955E-2</v>
+      </c>
+      <c r="N29" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
         <v>4</v>
       </c>
@@ -771,8 +3471,15 @@
       <c r="E30">
         <v>6.4226174422868001E-2</v>
       </c>
-    </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="M30">
+        <f>AVERAGE(E87:E96)</f>
+        <v>1.188197934700792E-2</v>
+      </c>
+      <c r="N30" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
         <v>4</v>
       </c>
@@ -786,7 +3493,7 @@
         <v>6.7451227214974402E-2</v>
       </c>
     </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
         <v>4</v>
       </c>
@@ -1558,5 +4265,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>